--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,15 +92,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.731874344762807</v>
+        <v>0.055246</v>
       </c>
       <c r="H2">
-        <v>0.731874344762807</v>
+        <v>0.165738</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05123086624298327</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05123086624298326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N2">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O2">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P2">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q2">
-        <v>19.15591245517615</v>
+        <v>2.787479561496666</v>
       </c>
       <c r="R2">
-        <v>19.15591245517615</v>
+        <v>25.08731605347</v>
       </c>
       <c r="S2">
-        <v>0.1113266536609365</v>
+        <v>0.009732185302106672</v>
       </c>
       <c r="T2">
-        <v>0.1113266536609365</v>
+        <v>0.009732185302106667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.731874344762807</v>
+        <v>0.055246</v>
       </c>
       <c r="H3">
-        <v>0.731874344762807</v>
+        <v>0.165738</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05123086624298327</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05123086624298326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N3">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q3">
-        <v>108.5066037980123</v>
+        <v>8.246328147874666</v>
       </c>
       <c r="R3">
-        <v>108.5066037980123</v>
+        <v>74.216953330872</v>
       </c>
       <c r="S3">
-        <v>0.6305978443580588</v>
+        <v>0.02879116844681135</v>
       </c>
       <c r="T3">
-        <v>0.6305978443580588</v>
+        <v>0.02879116844681134</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.731874344762807</v>
+        <v>0.055246</v>
       </c>
       <c r="H4">
-        <v>0.731874344762807</v>
+        <v>0.165738</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.05123086624298327</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05123086624298326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N4">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q4">
-        <v>8.599761236330195</v>
+        <v>0.7339555035193333</v>
       </c>
       <c r="R4">
-        <v>8.599761236330195</v>
+        <v>6.605599531673999</v>
       </c>
       <c r="S4">
-        <v>0.04997844101469479</v>
+        <v>0.002562526758013575</v>
       </c>
       <c r="T4">
-        <v>0.04997844101469479</v>
+        <v>0.002562526758013575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.731874344762807</v>
+        <v>0.055246</v>
       </c>
       <c r="H5">
-        <v>0.731874344762807</v>
+        <v>0.165738</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.05123086624298327</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.05123086624298326</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N5">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q5">
-        <v>12.51004210658718</v>
+        <v>0.9626422507306664</v>
       </c>
       <c r="R5">
-        <v>12.51004210658718</v>
+        <v>8.663780256575999</v>
       </c>
       <c r="S5">
-        <v>0.07270346051865775</v>
+        <v>0.003360961957589256</v>
       </c>
       <c r="T5">
-        <v>0.07270346051865775</v>
+        <v>0.003360961957589255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.731874344762807</v>
+        <v>0.055246</v>
       </c>
       <c r="H6">
-        <v>0.731874344762807</v>
+        <v>0.165738</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.05123086624298327</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.05123086624298326</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N6">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q6">
-        <v>2.77767912717684</v>
+        <v>0.211044747386</v>
       </c>
       <c r="R6">
-        <v>2.77767912717684</v>
+        <v>1.899402726474</v>
       </c>
       <c r="S6">
-        <v>0.016142782177357</v>
+        <v>0.0007368400532752394</v>
       </c>
       <c r="T6">
-        <v>0.016142782177357</v>
+        <v>0.0007368400532752391</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1177 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.055246</v>
+      </c>
+      <c r="H7">
+        <v>0.165738</v>
+      </c>
+      <c r="I7">
+        <v>0.05123086624298327</v>
+      </c>
+      <c r="J7">
+        <v>0.05123086624298326</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N7">
+        <v>94.053487</v>
+      </c>
+      <c r="O7">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P7">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q7">
+        <v>1.732026314267333</v>
+      </c>
+      <c r="R7">
+        <v>15.588236828406</v>
+      </c>
+      <c r="S7">
+        <v>0.006047183725187177</v>
+      </c>
+      <c r="T7">
+        <v>0.006047183725187175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.112083</v>
+      </c>
+      <c r="H8">
+        <v>0.336249</v>
+      </c>
+      <c r="I8">
+        <v>0.1039371027968051</v>
+      </c>
+      <c r="J8">
+        <v>0.1039371027968051</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>50.45577166666666</v>
+      </c>
+      <c r="N8">
+        <v>151.367315</v>
+      </c>
+      <c r="O8">
+        <v>0.18996722124408</v>
+      </c>
+      <c r="P8">
+        <v>0.1899672212440799</v>
+      </c>
+      <c r="Q8">
+        <v>5.655234255714999</v>
+      </c>
+      <c r="R8">
+        <v>50.897108301435</v>
+      </c>
+      <c r="S8">
+        <v>0.01974464260246936</v>
+      </c>
+      <c r="T8">
+        <v>0.01974464260246935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.112083</v>
+      </c>
+      <c r="H9">
+        <v>0.336249</v>
+      </c>
+      <c r="I9">
+        <v>0.1039371027968051</v>
+      </c>
+      <c r="J9">
+        <v>0.1039371027968051</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N9">
+        <v>447.796844</v>
+      </c>
+      <c r="O9">
+        <v>0.5619887102876124</v>
+      </c>
+      <c r="P9">
+        <v>0.5619887102876123</v>
+      </c>
+      <c r="Q9">
+        <v>16.730137888684</v>
+      </c>
+      <c r="R9">
+        <v>150.571240998156</v>
+      </c>
+      <c r="S9">
+        <v>0.05841147835180748</v>
+      </c>
+      <c r="T9">
+        <v>0.05841147835180747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.112083</v>
+      </c>
+      <c r="H10">
+        <v>0.336249</v>
+      </c>
+      <c r="I10">
+        <v>0.1039371027968051</v>
+      </c>
+      <c r="J10">
+        <v>0.1039371027968051</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.28522433333333</v>
+      </c>
+      <c r="N10">
+        <v>39.855673</v>
+      </c>
+      <c r="O10">
+        <v>0.05001919635439596</v>
+      </c>
+      <c r="P10">
+        <v>0.05001919635439595</v>
+      </c>
+      <c r="Q10">
+        <v>1.489047798953</v>
+      </c>
+      <c r="R10">
+        <v>13.401430190577</v>
+      </c>
+      <c r="S10">
+        <v>0.005198850353300431</v>
+      </c>
+      <c r="T10">
+        <v>0.00519885035330043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.112083</v>
+      </c>
+      <c r="H11">
+        <v>0.336249</v>
+      </c>
+      <c r="I11">
+        <v>0.1039371027968051</v>
+      </c>
+      <c r="J11">
+        <v>0.1039371027968051</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>17.42465066666666</v>
+      </c>
+      <c r="N11">
+        <v>52.27395199999999</v>
+      </c>
+      <c r="O11">
+        <v>0.06560423830525379</v>
+      </c>
+      <c r="P11">
+        <v>0.06560423830525378</v>
+      </c>
+      <c r="Q11">
+        <v>1.953007120672</v>
+      </c>
+      <c r="R11">
+        <v>17.577064086048</v>
+      </c>
+      <c r="S11">
+        <v>0.006818714460639261</v>
+      </c>
+      <c r="T11">
+        <v>0.006818714460639259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.112083</v>
+      </c>
+      <c r="H12">
+        <v>0.336249</v>
+      </c>
+      <c r="I12">
+        <v>0.1039371027968051</v>
+      </c>
+      <c r="J12">
+        <v>0.1039371027968051</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.820091</v>
+      </c>
+      <c r="N12">
+        <v>11.460273</v>
+      </c>
+      <c r="O12">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="P12">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="Q12">
+        <v>0.428167259553</v>
+      </c>
+      <c r="R12">
+        <v>3.853505335977001</v>
+      </c>
+      <c r="S12">
+        <v>0.001494899969070135</v>
+      </c>
+      <c r="T12">
+        <v>0.001494899969070134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.112083</v>
+      </c>
+      <c r="H13">
+        <v>0.336249</v>
+      </c>
+      <c r="I13">
+        <v>0.1039371027968051</v>
+      </c>
+      <c r="J13">
+        <v>0.1039371027968051</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N13">
+        <v>94.053487</v>
+      </c>
+      <c r="O13">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P13">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q13">
+        <v>3.513932327807</v>
+      </c>
+      <c r="R13">
+        <v>31.625390950263</v>
+      </c>
+      <c r="S13">
+        <v>0.01226851705951842</v>
+      </c>
+      <c r="T13">
+        <v>0.01226851705951841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.731874344762807</v>
-      </c>
-      <c r="H7">
-        <v>0.731874344762807</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>28.0368057591466</v>
-      </c>
-      <c r="N7">
-        <v>28.0368057591466</v>
-      </c>
-      <c r="O7">
-        <v>0.1192508182702952</v>
-      </c>
-      <c r="P7">
-        <v>0.1192508182702952</v>
-      </c>
-      <c r="Q7">
-        <v>20.51941884421751</v>
-      </c>
-      <c r="R7">
-        <v>20.51941884421751</v>
-      </c>
-      <c r="S7">
-        <v>0.1192508182702952</v>
-      </c>
-      <c r="T7">
-        <v>0.1192508182702952</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.054708</v>
+      </c>
+      <c r="H14">
+        <v>0.164124</v>
+      </c>
+      <c r="I14">
+        <v>0.05073196666584238</v>
+      </c>
+      <c r="J14">
+        <v>0.05073196666584238</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>50.45577166666666</v>
+      </c>
+      <c r="N14">
+        <v>151.367315</v>
+      </c>
+      <c r="O14">
+        <v>0.18996722124408</v>
+      </c>
+      <c r="P14">
+        <v>0.1899672212440799</v>
+      </c>
+      <c r="Q14">
+        <v>2.76033435634</v>
+      </c>
+      <c r="R14">
+        <v>24.84300920706</v>
+      </c>
+      <c r="S14">
+        <v>0.009637410735757372</v>
+      </c>
+      <c r="T14">
+        <v>0.009637410735757367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.054708</v>
+      </c>
+      <c r="H15">
+        <v>0.164124</v>
+      </c>
+      <c r="I15">
+        <v>0.05073196666584238</v>
+      </c>
+      <c r="J15">
+        <v>0.05073196666584238</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N15">
+        <v>447.796844</v>
+      </c>
+      <c r="O15">
+        <v>0.5619887102876124</v>
+      </c>
+      <c r="P15">
+        <v>0.5619887102876123</v>
+      </c>
+      <c r="Q15">
+        <v>8.166023247184</v>
+      </c>
+      <c r="R15">
+        <v>73.494209224656</v>
+      </c>
+      <c r="S15">
+        <v>0.02851079251689091</v>
+      </c>
+      <c r="T15">
+        <v>0.0285107925168909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.054708</v>
+      </c>
+      <c r="H16">
+        <v>0.164124</v>
+      </c>
+      <c r="I16">
+        <v>0.05073196666584238</v>
+      </c>
+      <c r="J16">
+        <v>0.05073196666584238</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.28522433333333</v>
+      </c>
+      <c r="N16">
+        <v>39.855673</v>
+      </c>
+      <c r="O16">
+        <v>0.05001919635439596</v>
+      </c>
+      <c r="P16">
+        <v>0.05001919635439595</v>
+      </c>
+      <c r="Q16">
+        <v>0.7268080528279999</v>
+      </c>
+      <c r="R16">
+        <v>6.541272475451999</v>
+      </c>
+      <c r="S16">
+        <v>0.002537572202103441</v>
+      </c>
+      <c r="T16">
+        <v>0.00253757220210344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.054708</v>
+      </c>
+      <c r="H17">
+        <v>0.164124</v>
+      </c>
+      <c r="I17">
+        <v>0.05073196666584238</v>
+      </c>
+      <c r="J17">
+        <v>0.05073196666584238</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.42465066666666</v>
+      </c>
+      <c r="N17">
+        <v>52.27395199999999</v>
+      </c>
+      <c r="O17">
+        <v>0.06560423830525379</v>
+      </c>
+      <c r="P17">
+        <v>0.06560423830525378</v>
+      </c>
+      <c r="Q17">
+        <v>0.9532677886719999</v>
+      </c>
+      <c r="R17">
+        <v>8.579410098047999</v>
+      </c>
+      <c r="S17">
+        <v>0.003328232030840115</v>
+      </c>
+      <c r="T17">
+        <v>0.003328232030840114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.054708</v>
+      </c>
+      <c r="H18">
+        <v>0.164124</v>
+      </c>
+      <c r="I18">
+        <v>0.05073196666584238</v>
+      </c>
+      <c r="J18">
+        <v>0.05073196666584238</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.820091</v>
+      </c>
+      <c r="N18">
+        <v>11.460273</v>
+      </c>
+      <c r="O18">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="P18">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="Q18">
+        <v>0.208989538428</v>
+      </c>
+      <c r="R18">
+        <v>1.880905845852</v>
+      </c>
+      <c r="S18">
+        <v>0.0007296645120838032</v>
+      </c>
+      <c r="T18">
+        <v>0.000729664512083803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.054708</v>
+      </c>
+      <c r="H19">
+        <v>0.164124</v>
+      </c>
+      <c r="I19">
+        <v>0.05073196666584238</v>
+      </c>
+      <c r="J19">
+        <v>0.05073196666584238</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N19">
+        <v>94.053487</v>
+      </c>
+      <c r="O19">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P19">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q19">
+        <v>1.715159388932</v>
+      </c>
+      <c r="R19">
+        <v>15.436434500388</v>
+      </c>
+      <c r="S19">
+        <v>0.005988294668166747</v>
+      </c>
+      <c r="T19">
+        <v>0.005988294668166745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8563363333333333</v>
+      </c>
+      <c r="H20">
+        <v>2.569009</v>
+      </c>
+      <c r="I20">
+        <v>0.7941000642943693</v>
+      </c>
+      <c r="J20">
+        <v>0.7941000642943693</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>50.45577166666666</v>
+      </c>
+      <c r="N20">
+        <v>151.367315</v>
+      </c>
+      <c r="O20">
+        <v>0.18996722124408</v>
+      </c>
+      <c r="P20">
+        <v>0.1899672212440799</v>
+      </c>
+      <c r="Q20">
+        <v>43.20711050453721</v>
+      </c>
+      <c r="R20">
+        <v>388.8639945408349</v>
+      </c>
+      <c r="S20">
+        <v>0.1508529826037466</v>
+      </c>
+      <c r="T20">
+        <v>0.1508529826037465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8563363333333333</v>
+      </c>
+      <c r="H21">
+        <v>2.569009</v>
+      </c>
+      <c r="I21">
+        <v>0.7941000642943693</v>
+      </c>
+      <c r="J21">
+        <v>0.7941000642943693</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N21">
+        <v>447.796844</v>
+      </c>
+      <c r="O21">
+        <v>0.5619887102876124</v>
+      </c>
+      <c r="P21">
+        <v>0.5619887102876123</v>
+      </c>
+      <c r="Q21">
+        <v>127.8215691563995</v>
+      </c>
+      <c r="R21">
+        <v>1150.394122407596</v>
+      </c>
+      <c r="S21">
+        <v>0.4462752709721027</v>
+      </c>
+      <c r="T21">
+        <v>0.4462752709721026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8563363333333333</v>
+      </c>
+      <c r="H22">
+        <v>2.569009</v>
+      </c>
+      <c r="I22">
+        <v>0.7941000642943693</v>
+      </c>
+      <c r="J22">
+        <v>0.7941000642943693</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.28522433333333</v>
+      </c>
+      <c r="N22">
+        <v>39.855673</v>
+      </c>
+      <c r="O22">
+        <v>0.05001919635439596</v>
+      </c>
+      <c r="P22">
+        <v>0.05001919635439595</v>
+      </c>
+      <c r="Q22">
+        <v>11.37662029311744</v>
+      </c>
+      <c r="R22">
+        <v>102.389582638057</v>
+      </c>
+      <c r="S22">
+        <v>0.03972024704097851</v>
+      </c>
+      <c r="T22">
+        <v>0.03972024704097851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8563363333333333</v>
+      </c>
+      <c r="H23">
+        <v>2.569009</v>
+      </c>
+      <c r="I23">
+        <v>0.7941000642943693</v>
+      </c>
+      <c r="J23">
+        <v>0.7941000642943693</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>17.42465066666666</v>
+      </c>
+      <c r="N23">
+        <v>52.27395199999999</v>
+      </c>
+      <c r="O23">
+        <v>0.06560423830525379</v>
+      </c>
+      <c r="P23">
+        <v>0.06560423830525378</v>
+      </c>
+      <c r="Q23">
+        <v>14.92136146150755</v>
+      </c>
+      <c r="R23">
+        <v>134.292253153568</v>
+      </c>
+      <c r="S23">
+        <v>0.05209632985618516</v>
+      </c>
+      <c r="T23">
+        <v>0.05209632985618515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8563363333333333</v>
+      </c>
+      <c r="H24">
+        <v>2.569009</v>
+      </c>
+      <c r="I24">
+        <v>0.7941000642943693</v>
+      </c>
+      <c r="J24">
+        <v>0.7941000642943693</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.820091</v>
+      </c>
+      <c r="N24">
+        <v>11.460273</v>
+      </c>
+      <c r="O24">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="P24">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="Q24">
+        <v>3.271282719939666</v>
+      </c>
+      <c r="R24">
+        <v>29.441544479457</v>
+      </c>
+      <c r="S24">
+        <v>0.01142133203263325</v>
+      </c>
+      <c r="T24">
+        <v>0.01142133203263325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8563363333333333</v>
+      </c>
+      <c r="H25">
+        <v>2.569009</v>
+      </c>
+      <c r="I25">
+        <v>0.7941000642943693</v>
+      </c>
+      <c r="J25">
+        <v>0.7941000642943693</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N25">
+        <v>94.053487</v>
+      </c>
+      <c r="O25">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P25">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q25">
+        <v>26.84713939826478</v>
+      </c>
+      <c r="R25">
+        <v>241.624254584383</v>
+      </c>
+      <c r="S25">
+        <v>0.09373390178872307</v>
+      </c>
+      <c r="T25">
+        <v>0.09373390178872305</v>
       </c>
     </row>
   </sheetData>
